--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150745.6585864075</v>
+        <v>148858.0770700058</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>315.6129666786924</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>138.8982917628127</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>15.58840444228599</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1060804925961838</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>324.261603590377</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>105.0839683962661</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>40.34437900655341</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.39769375562928</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>160.0655515896126</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>64.57569700776705</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903408</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>91.09720239620654</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>256.1117638868753</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>145.3660141484327</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>105.9751510769324</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>46.08866211900116</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>247.971816284038</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.0029240824649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>168.5271252560686</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
-        <v>166.1848299532894</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002177</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>70.02468195576024</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.85553884047395</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>144.651069400947</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1838.152798564255</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1469.190281623843</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1110.924583017093</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1110.924583017093</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>699.9386782274853</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2071.879823690055</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.111168419941</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>1345.645410158861</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>955.5060781830496</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.956448217093</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>2321.927810104431</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>2175.037862606521</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>2175.037862606521</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.6049130473327</v>
+        <v>2469.840903686824</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.974978926224</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.974978926224</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.974978926224</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>263.631062734689</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990284</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990284</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646713</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646713</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385633</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.985778385633</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>164.8274830287524</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942396</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942396</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942396</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942396</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942396</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942396</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.5758555962223</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822455</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5048,7 +5048,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>484.0375086983737</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>484.0375086983737</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1240.217519157018</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>985.5330309511313</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W13" t="n">
-        <v>696.1158609141708</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161517</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>665.6859735286134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>653.6713633309774</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>653.6713633309774</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.221394183544</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>762.5369059776569</v>
+        <v>1391.870663409486</v>
       </c>
       <c r="W16" t="n">
-        <v>473.1197359406963</v>
+        <v>1102.453493372525</v>
       </c>
       <c r="X16" t="n">
-        <v>245.130185042679</v>
+        <v>874.4639424745076</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.130185042679</v>
+        <v>653.6713633309774</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,46 +5504,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.1356072130308</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851239</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727881</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,16 +5680,16 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1228.576651186801</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1228.576651186801</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.576651186801</v>
+        <v>1024.654273242319</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.576651186801</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y19" t="n">
-        <v>1007.78407204327</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5838,16 +5838,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.4843764226425</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1104.901435896834</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>1104.901435896834</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655738</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675564</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.1135926675564</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247856</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>796.2722772255036</v>
+        <v>1090.10087974468</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>835.4163915387936</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228582</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228582</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228582</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1428.184268582387</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1139.055629795945</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>884.3711415900584</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>594.953971553098</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>594.953971553098</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>594.953971553098</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440236</v>
+        <v>695.1010933248434</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440236</v>
+        <v>581.9257756783072</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440236</v>
+        <v>487.5700015473424</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>395.4177732463201</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1590.540488782106</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1357.172715277035</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1158.249092352518</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>1158.249092352518</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>986.0204067358717</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>820.9886928737124</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
@@ -7081,7 +7081,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860497</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,13 +7196,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083213</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="41">
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7494,19 +7494,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7546,19 +7546,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270199</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627899</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>57.51827062200582</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>30.12558851170206</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8713382501446</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>146.1624922468956</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>240.1486902795762</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>38.55118205255301</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.82905609947236</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>117.7102271425088</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518766</v>
       </c>
       <c r="U25" t="n">
-        <v>120.052522445288</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338548</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>151.522879102629</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.7731847129062</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>21.69323502888524</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>307890.6636991063</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991066</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="F2" t="n">
-        <v>293271.7948032813</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032813</v>
@@ -26338,22 +26338,22 @@
         <v>293271.7948032814</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089525</v>
+        <v>305116.6030089528</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="P2" t="n">
         <v>307890.6636991062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26418,19 +26418,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143916</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26497,13 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521711.2518300702</v>
+        <v>-521711.2518300703</v>
       </c>
       <c r="C6" t="n">
+        <v>68256.62738447428</v>
+      </c>
+      <c r="D6" t="n">
         <v>68256.62738447447</v>
       </c>
-      <c r="D6" t="n">
-        <v>68256.62738447453</v>
-      </c>
       <c r="E6" t="n">
-        <v>-338921.2372437708</v>
+        <v>-339018.6963697424</v>
       </c>
       <c r="F6" t="n">
-        <v>186238.7992331255</v>
+        <v>186141.3401071535</v>
       </c>
       <c r="G6" t="n">
-        <v>186238.7992331255</v>
+        <v>186141.3401071534</v>
       </c>
       <c r="H6" t="n">
-        <v>186238.7992331257</v>
+        <v>186141.3401071536</v>
       </c>
       <c r="I6" t="n">
-        <v>186238.7992331256</v>
+        <v>186141.3401071534</v>
       </c>
       <c r="J6" t="n">
-        <v>9815.580040532717</v>
+        <v>9718.120914560554</v>
       </c>
       <c r="K6" t="n">
-        <v>131115.4970402484</v>
+        <v>131097.0033023144</v>
       </c>
       <c r="L6" t="n">
-        <v>162368.1942154545</v>
+        <v>162368.1942154543</v>
       </c>
       <c r="M6" t="n">
-        <v>37910.08578248401</v>
+        <v>37910.08578248395</v>
       </c>
       <c r="N6" t="n">
+        <v>172711.1010163212</v>
+      </c>
+      <c r="O6" t="n">
         <v>172711.1010163213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>172711.1010163212</v>
       </c>
       <c r="P6" t="n">
         <v>128548.4957134756</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>98.17120334210256</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>188.8539667073222</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>140.5824843995092</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>224.9290249654881</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>58.47223807310354</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>222.6682900738688</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>139.4876011753839</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7588423209958</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.3361479078513</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>226.172387066441</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>70.38992478457121</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.697723443309466e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839647</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813574</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307163</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36911,22 +36911,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,10 +37874,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
